--- a/src/main/resources/output/BCBSKS_Pharm_Run_Out_ALT20250615.xlsx
+++ b/src/main/resources/output/BCBSKS_Pharm_Run_Out_ALT20250615.xlsx
@@ -2192,12 +2192,12 @@
       </c>
       <c r="H3" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I3" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R3" s="11" t="inlineStr">
@@ -2211,9 +2211,9 @@
         </is>
       </c>
       <c r="U3" s="11"/>
-      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
       <c r="Z3" s="18"/>
-      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
       <c r="AO3" s="12" t="inlineStr">
         <is>
           <t>Claim ID-Real Claim #-Real Claim Seq#-Real Claim Status</t>
@@ -2258,17 +2258,17 @@
       </c>
       <c r="H4" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I4" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R4" s="11" t="inlineStr">
         <is>
-          <t>2025-04-12T00:00:00+00:00</t>
+          <t>04/12/25</t>
         </is>
       </c>
       <c r="T4" s="13" t="inlineStr">
@@ -2277,9 +2277,9 @@
         </is>
       </c>
       <c r="U4" s="11"/>
-      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
       <c r="Z4" s="18"/>
-      <c r="AC4" s="11"/>
+      <c r="AD4" s="11"/>
       <c r="AO4" s="12" t="inlineStr">
         <is>
           <t>claimId1-realClaimId1-999-X</t>
@@ -2324,17 +2324,17 @@
       </c>
       <c r="H5" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I5" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R5" s="11" t="inlineStr">
         <is>
-          <t>2025-04-13T00:00:00+00:00</t>
+          <t>04/13/25</t>
         </is>
       </c>
       <c r="T5" s="13" t="inlineStr">
@@ -2343,9 +2343,9 @@
         </is>
       </c>
       <c r="U5" s="11"/>
-      <c r="X5" s="11"/>
+      <c r="Y5" s="11"/>
       <c r="Z5" s="18"/>
-      <c r="AC5" s="11"/>
+      <c r="AD5" s="11"/>
       <c r="AO5" s="12" t="inlineStr">
         <is>
           <t>claimId2-realClaimId2-999-P</t>
@@ -2390,17 +2390,17 @@
       </c>
       <c r="H6" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I6" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R6" s="11" t="inlineStr">
         <is>
-          <t>2025-04-13T00:00:00+00:00</t>
+          <t>04/13/25</t>
         </is>
       </c>
       <c r="T6" s="13" t="inlineStr">
@@ -2409,9 +2409,9 @@
         </is>
       </c>
       <c r="U6" s="11"/>
-      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
       <c r="Z6" s="18"/>
-      <c r="AC6" s="11"/>
+      <c r="AD6" s="11"/>
       <c r="AO6" s="12" t="inlineStr">
         <is>
           <t>claimId3-realClaimId3-999-P</t>
@@ -2456,17 +2456,17 @@
       </c>
       <c r="H7" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I7" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R7" s="11" t="inlineStr">
         <is>
-          <t>2025-04-13T00:00:00+00:00</t>
+          <t>04/13/25</t>
         </is>
       </c>
       <c r="T7" s="13" t="inlineStr">
@@ -2475,9 +2475,9 @@
         </is>
       </c>
       <c r="U7" s="11"/>
-      <c r="X7" s="11"/>
+      <c r="Y7" s="11"/>
       <c r="Z7" s="18"/>
-      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
       <c r="AO7" s="12" t="inlineStr">
         <is>
           <t>claimId4-realClaimId4-999-P</t>
@@ -2522,17 +2522,17 @@
       </c>
       <c r="H8" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I8" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R8" s="11" t="inlineStr">
         <is>
-          <t>2025-04-13T00:00:00+00:00</t>
+          <t>04/13/25</t>
         </is>
       </c>
       <c r="T8" s="13" t="inlineStr">
@@ -2541,9 +2541,9 @@
         </is>
       </c>
       <c r="U8" s="11"/>
-      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
       <c r="Z8" s="18"/>
-      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
       <c r="AO8" s="12" t="inlineStr">
         <is>
           <t>claimId5-realClaimId5-999-P</t>
@@ -2588,17 +2588,17 @@
       </c>
       <c r="H9" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I9" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R9" s="11" t="inlineStr">
         <is>
-          <t>2025-04-13T00:00:00+00:00</t>
+          <t>04/13/25</t>
         </is>
       </c>
       <c r="T9" s="13" t="inlineStr">
@@ -2607,9 +2607,9 @@
         </is>
       </c>
       <c r="U9" s="11"/>
-      <c r="X9" s="11"/>
+      <c r="Y9" s="11"/>
       <c r="Z9" s="18"/>
-      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
       <c r="AO9" s="12" t="inlineStr">
         <is>
           <t>claimId6-realClaimId6-999-P</t>
@@ -2654,17 +2654,17 @@
       </c>
       <c r="H10" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I10" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R10" s="11" t="inlineStr">
         <is>
-          <t>2025-04-13T00:00:00+00:00</t>
+          <t>04/13/25</t>
         </is>
       </c>
       <c r="T10" s="13" t="inlineStr">
@@ -2673,9 +2673,9 @@
         </is>
       </c>
       <c r="U10" s="11"/>
-      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
       <c r="Z10" s="18"/>
-      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
       <c r="AO10" s="12" t="inlineStr">
         <is>
           <t>claimId7-realClaimId7-999-P</t>
@@ -2720,17 +2720,17 @@
       </c>
       <c r="H11" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I11" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R11" s="11" t="inlineStr">
         <is>
-          <t>2025-04-13T00:00:00+00:00</t>
+          <t>04/13/25</t>
         </is>
       </c>
       <c r="T11" s="13" t="inlineStr">
@@ -2739,9 +2739,9 @@
         </is>
       </c>
       <c r="U11" s="11"/>
-      <c r="X11" s="11"/>
+      <c r="Y11" s="11"/>
       <c r="Z11" s="18"/>
-      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
       <c r="AO11" s="12" t="inlineStr">
         <is>
           <t>claimId8-realClaimId8-999-P</t>
@@ -2786,17 +2786,17 @@
       </c>
       <c r="H12" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I12" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R12" s="11" t="inlineStr">
         <is>
-          <t>2025-04-13T00:00:00+00:00</t>
+          <t>04/13/25</t>
         </is>
       </c>
       <c r="T12" s="13" t="inlineStr">
@@ -2805,9 +2805,9 @@
         </is>
       </c>
       <c r="U12" s="11"/>
-      <c r="X12" s="11"/>
+      <c r="Y12" s="11"/>
       <c r="Z12" s="18"/>
-      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
       <c r="AO12" s="12" t="inlineStr">
         <is>
           <t>claimId9-realClaimId9-999-P</t>
@@ -2852,17 +2852,17 @@
       </c>
       <c r="H13" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I13" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R13" s="11" t="inlineStr">
         <is>
-          <t>2025-04-13T00:00:00+00:00</t>
+          <t>04/13/25</t>
         </is>
       </c>
       <c r="T13" s="13" t="inlineStr">
@@ -2871,9 +2871,9 @@
         </is>
       </c>
       <c r="U13" s="11"/>
-      <c r="X13" s="11"/>
+      <c r="Y13" s="11"/>
       <c r="Z13" s="18"/>
-      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
       <c r="AO13" s="12" t="inlineStr">
         <is>
           <t>claimId10-realClaimId10-999-P</t>
@@ -2918,17 +2918,17 @@
       </c>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I14" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R14" s="11" t="inlineStr">
         <is>
-          <t>2025-04-13T00:00:00+00:00</t>
+          <t>04/13/25</t>
         </is>
       </c>
       <c r="T14" s="13" t="inlineStr">
@@ -2937,9 +2937,9 @@
         </is>
       </c>
       <c r="U14" s="11"/>
-      <c r="X14" s="11"/>
+      <c r="Y14" s="11"/>
       <c r="Z14" s="18"/>
-      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
       <c r="AO14" s="12" t="inlineStr">
         <is>
           <t>claimId11-realClaimId11-999-P</t>
@@ -2984,17 +2984,17 @@
       </c>
       <c r="H15" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I15" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R15" s="11" t="inlineStr">
         <is>
-          <t>2025-04-13T00:00:00+00:00</t>
+          <t>04/13/25</t>
         </is>
       </c>
       <c r="T15" s="13" t="inlineStr">
@@ -3003,9 +3003,9 @@
         </is>
       </c>
       <c r="U15" s="11"/>
-      <c r="X15" s="11"/>
+      <c r="Y15" s="11"/>
       <c r="Z15" s="18"/>
-      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
       <c r="AO15" s="12" t="inlineStr">
         <is>
           <t>claimId12-realClaimId12-999-P</t>
@@ -3050,17 +3050,17 @@
       </c>
       <c r="H16" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I16" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R16" s="11" t="inlineStr">
         <is>
-          <t>2025-04-13T00:00:00+00:00</t>
+          <t>04/13/25</t>
         </is>
       </c>
       <c r="T16" s="13" t="inlineStr">
@@ -3069,9 +3069,9 @@
         </is>
       </c>
       <c r="U16" s="11"/>
-      <c r="X16" s="11"/>
+      <c r="Y16" s="11"/>
       <c r="Z16" s="18"/>
-      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
       <c r="AO16" s="12" t="inlineStr">
         <is>
           <t>claimId13-realClaimId13-999-P</t>
@@ -3116,17 +3116,17 @@
       </c>
       <c r="H17" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I17" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R17" s="11" t="inlineStr">
         <is>
-          <t>2025-04-13T00:00:00+00:00</t>
+          <t>04/13/25</t>
         </is>
       </c>
       <c r="T17" s="13" t="inlineStr">
@@ -3135,9 +3135,9 @@
         </is>
       </c>
       <c r="U17" s="11"/>
-      <c r="X17" s="11"/>
+      <c r="Y17" s="11"/>
       <c r="Z17" s="18"/>
-      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
       <c r="AO17" s="12" t="inlineStr">
         <is>
           <t>claimId14-realClaimId14-999-P</t>
@@ -3182,17 +3182,17 @@
       </c>
       <c r="H18" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I18" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R18" s="11" t="inlineStr">
         <is>
-          <t>2025-04-13T00:00:00+00:00</t>
+          <t>04/13/25</t>
         </is>
       </c>
       <c r="T18" s="13" t="inlineStr">
@@ -3201,9 +3201,9 @@
         </is>
       </c>
       <c r="U18" s="11"/>
-      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
       <c r="Z18" s="18"/>
-      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
       <c r="AO18" s="12" t="inlineStr">
         <is>
           <t>claimId15-realClaimId15-999-P</t>
@@ -3248,17 +3248,17 @@
       </c>
       <c r="H19" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I19" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R19" s="11" t="inlineStr">
         <is>
-          <t>2025-04-13T00:00:00+00:00</t>
+          <t>04/13/25</t>
         </is>
       </c>
       <c r="T19" s="13" t="inlineStr">
@@ -3267,9 +3267,9 @@
         </is>
       </c>
       <c r="U19" s="11"/>
-      <c r="X19" s="11"/>
+      <c r="Y19" s="11"/>
       <c r="Z19" s="18"/>
-      <c r="AC19" s="11"/>
+      <c r="AD19" s="11"/>
       <c r="AO19" s="12" t="inlineStr">
         <is>
           <t>claimId16-realClaimId16-999-P</t>
@@ -3314,17 +3314,17 @@
       </c>
       <c r="H20" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I20" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R20" s="11" t="inlineStr">
         <is>
-          <t>2025-04-13T00:00:00+00:00</t>
+          <t>04/13/25</t>
         </is>
       </c>
       <c r="T20" s="13" t="inlineStr">
@@ -3333,9 +3333,9 @@
         </is>
       </c>
       <c r="U20" s="11"/>
-      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
       <c r="Z20" s="18"/>
-      <c r="AC20" s="11"/>
+      <c r="AD20" s="11"/>
       <c r="AO20" s="12" t="inlineStr">
         <is>
           <t>claimId17-realClaimId17-999-P</t>
@@ -3380,17 +3380,17 @@
       </c>
       <c r="H21" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I21" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R21" s="11" t="inlineStr">
         <is>
-          <t>2025-04-13T00:00:00+00:00</t>
+          <t>04/13/25</t>
         </is>
       </c>
       <c r="T21" s="13" t="inlineStr">
@@ -3399,9 +3399,9 @@
         </is>
       </c>
       <c r="U21" s="11"/>
-      <c r="X21" s="11"/>
+      <c r="Y21" s="11"/>
       <c r="Z21" s="18"/>
-      <c r="AC21" s="11"/>
+      <c r="AD21" s="11"/>
       <c r="AO21" s="12" t="inlineStr">
         <is>
           <t>claimId18-realClaimId18-999-P</t>
@@ -3446,17 +3446,17 @@
       </c>
       <c r="H22" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I22" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R22" s="11" t="inlineStr">
         <is>
-          <t>2025-04-13T00:00:00+00:00</t>
+          <t>04/13/25</t>
         </is>
       </c>
       <c r="T22" s="13" t="inlineStr">
@@ -3465,9 +3465,9 @@
         </is>
       </c>
       <c r="U22" s="11"/>
-      <c r="X22" s="11"/>
+      <c r="Y22" s="11"/>
       <c r="Z22" s="18"/>
-      <c r="AC22" s="11"/>
+      <c r="AD22" s="11"/>
       <c r="AO22" s="12" t="inlineStr">
         <is>
           <t>claimId19-realClaimId19-999-P</t>
@@ -3512,17 +3512,17 @@
       </c>
       <c r="H23" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I23" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R23" s="11" t="inlineStr">
         <is>
-          <t>2025-04-13T00:00:00+00:00</t>
+          <t>04/13/25</t>
         </is>
       </c>
       <c r="T23" s="13" t="inlineStr">
@@ -3531,9 +3531,9 @@
         </is>
       </c>
       <c r="U23" s="11"/>
-      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
       <c r="Z23" s="18"/>
-      <c r="AC23" s="11"/>
+      <c r="AD23" s="11"/>
       <c r="AO23" s="12" t="inlineStr">
         <is>
           <t>claimId20-realClaimId20-999-P</t>
@@ -3578,17 +3578,17 @@
       </c>
       <c r="H24" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I24" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R24" s="11" t="inlineStr">
         <is>
-          <t>2025-04-13T00:00:00+00:00</t>
+          <t>04/13/25</t>
         </is>
       </c>
       <c r="T24" s="13" t="inlineStr">
@@ -3597,9 +3597,9 @@
         </is>
       </c>
       <c r="U24" s="11"/>
-      <c r="X24" s="11"/>
+      <c r="Y24" s="11"/>
       <c r="Z24" s="18"/>
-      <c r="AC24" s="11"/>
+      <c r="AD24" s="11"/>
       <c r="AO24" s="12" t="inlineStr">
         <is>
           <t>claimId21-realClaimId21-999-P</t>
@@ -3644,17 +3644,17 @@
       </c>
       <c r="H25" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I25" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R25" s="11" t="inlineStr">
         <is>
-          <t>2025-04-13T00:00:00+00:00</t>
+          <t>04/13/25</t>
         </is>
       </c>
       <c r="T25" s="13" t="inlineStr">
@@ -3663,9 +3663,9 @@
         </is>
       </c>
       <c r="U25" s="11"/>
-      <c r="X25" s="11"/>
+      <c r="Y25" s="11"/>
       <c r="Z25" s="18"/>
-      <c r="AC25" s="11"/>
+      <c r="AD25" s="11"/>
       <c r="AO25" s="12" t="inlineStr">
         <is>
           <t>claimId22-realClaimId22-999-P</t>
@@ -3710,17 +3710,17 @@
       </c>
       <c r="H26" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I26" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R26" s="11" t="inlineStr">
         <is>
-          <t>2025-04-13T00:00:00+00:00</t>
+          <t>04/13/25</t>
         </is>
       </c>
       <c r="T26" s="13" t="inlineStr">
@@ -3729,9 +3729,9 @@
         </is>
       </c>
       <c r="U26" s="11"/>
-      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
       <c r="Z26" s="18"/>
-      <c r="AC26" s="11"/>
+      <c r="AD26" s="11"/>
       <c r="AO26" s="12" t="inlineStr">
         <is>
           <t>claimId23-realClaimId23-999-P</t>
@@ -3776,17 +3776,17 @@
       </c>
       <c r="H27" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I27" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R27" s="11" t="inlineStr">
         <is>
-          <t>2025-04-13T00:00:00+00:00</t>
+          <t>04/13/25</t>
         </is>
       </c>
       <c r="T27" s="13" t="inlineStr">
@@ -3795,9 +3795,9 @@
         </is>
       </c>
       <c r="U27" s="11"/>
-      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
       <c r="Z27" s="18"/>
-      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
       <c r="AO27" s="12" t="inlineStr">
         <is>
           <t>claimId24-realClaimId24-999-P</t>
@@ -3842,17 +3842,17 @@
       </c>
       <c r="H28" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I28" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R28" s="11" t="inlineStr">
         <is>
-          <t>2025-04-13T00:00:00+00:00</t>
+          <t>04/13/25</t>
         </is>
       </c>
       <c r="T28" s="13" t="inlineStr">
@@ -3861,9 +3861,9 @@
         </is>
       </c>
       <c r="U28" s="11"/>
-      <c r="X28" s="11"/>
+      <c r="Y28" s="11"/>
       <c r="Z28" s="18"/>
-      <c r="AC28" s="11"/>
+      <c r="AD28" s="11"/>
       <c r="AO28" s="12" t="inlineStr">
         <is>
           <t>claimId25-realClaimId25-999-P</t>
@@ -3908,17 +3908,17 @@
       </c>
       <c r="H29" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I29" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R29" s="11" t="inlineStr">
         <is>
-          <t>2025-04-13T00:00:00+00:00</t>
+          <t>04/13/25</t>
         </is>
       </c>
       <c r="T29" s="13" t="inlineStr">
@@ -3927,9 +3927,9 @@
         </is>
       </c>
       <c r="U29" s="11"/>
-      <c r="X29" s="11"/>
+      <c r="Y29" s="11"/>
       <c r="Z29" s="18"/>
-      <c r="AC29" s="11"/>
+      <c r="AD29" s="11"/>
       <c r="AO29" s="12" t="inlineStr">
         <is>
           <t>claimId26-realClaimId26-999-P</t>
@@ -3974,17 +3974,17 @@
       </c>
       <c r="H30" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I30" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R30" s="11" t="inlineStr">
         <is>
-          <t>2025-04-13T00:00:00+00:00</t>
+          <t>04/13/25</t>
         </is>
       </c>
       <c r="T30" s="13" t="inlineStr">
@@ -3993,9 +3993,9 @@
         </is>
       </c>
       <c r="U30" s="11"/>
-      <c r="X30" s="11"/>
+      <c r="Y30" s="11"/>
       <c r="Z30" s="18"/>
-      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
       <c r="AO30" s="12" t="inlineStr">
         <is>
           <t>claimId27-realClaimId27-999-P</t>
@@ -4040,17 +4040,17 @@
       </c>
       <c r="H31" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I31" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R31" s="11" t="inlineStr">
         <is>
-          <t>2025-04-13T00:00:00+00:00</t>
+          <t>04/13/25</t>
         </is>
       </c>
       <c r="T31" s="13" t="inlineStr">
@@ -4059,9 +4059,9 @@
         </is>
       </c>
       <c r="U31" s="11"/>
-      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
       <c r="Z31" s="18"/>
-      <c r="AC31" s="11"/>
+      <c r="AD31" s="11"/>
       <c r="AO31" s="12" t="inlineStr">
         <is>
           <t>claimId28-realClaimId28-999-P</t>
@@ -4106,17 +4106,17 @@
       </c>
       <c r="H32" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="I32" s="11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="R32" s="11" t="inlineStr">
         <is>
-          <t>2025-04-13T00:00:00+00:00</t>
+          <t>04/13/25</t>
         </is>
       </c>
       <c r="T32" s="13" t="inlineStr">
@@ -4125,9 +4125,9 @@
         </is>
       </c>
       <c r="U32" s="11"/>
-      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
       <c r="Z32" s="18"/>
-      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
       <c r="AO32" s="12" t="inlineStr">
         <is>
           <t>claimId29-realClaimId29-999-P</t>

--- a/src/main/resources/output/BCBSKS_Pharm_Run_Out_ALT20250615.xlsx
+++ b/src/main/resources/output/BCBSKS_Pharm_Run_Out_ALT20250615.xlsx
@@ -2210,10 +2210,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="18"/>
-      <c r="AD3" s="11"/>
       <c r="AO3" s="12" t="inlineStr">
         <is>
           <t>Claim ID-Real Claim #-Real Claim Seq#-Real Claim Status</t>
@@ -2276,10 +2272,16 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="18"/>
-      <c r="AD4" s="11"/>
+      <c r="U4" s="11" t="inlineStr">
+        <is>
+          <t>24.19</t>
+        </is>
+      </c>
+      <c r="Y4" s="11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="AO4" s="12" t="inlineStr">
         <is>
           <t>claimId1-realClaimId1-999-X</t>
@@ -2342,10 +2344,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U5" s="11"/>
-      <c r="Y5" s="11"/>
-      <c r="Z5" s="18"/>
-      <c r="AD5" s="11"/>
       <c r="AO5" s="12" t="inlineStr">
         <is>
           <t>claimId2-realClaimId2-999-P</t>
@@ -2408,10 +2406,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="18"/>
-      <c r="AD6" s="11"/>
       <c r="AO6" s="12" t="inlineStr">
         <is>
           <t>claimId3-realClaimId3-999-P</t>
@@ -2474,10 +2468,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U7" s="11"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="18"/>
-      <c r="AD7" s="11"/>
       <c r="AO7" s="12" t="inlineStr">
         <is>
           <t>claimId4-realClaimId4-999-P</t>
@@ -2540,10 +2530,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U8" s="11"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="18"/>
-      <c r="AD8" s="11"/>
       <c r="AO8" s="12" t="inlineStr">
         <is>
           <t>claimId5-realClaimId5-999-P</t>
@@ -2606,10 +2592,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U9" s="11"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="18"/>
-      <c r="AD9" s="11"/>
       <c r="AO9" s="12" t="inlineStr">
         <is>
           <t>claimId6-realClaimId6-999-P</t>
@@ -2672,10 +2654,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U10" s="11"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="18"/>
-      <c r="AD10" s="11"/>
       <c r="AO10" s="12" t="inlineStr">
         <is>
           <t>claimId7-realClaimId7-999-P</t>
@@ -2738,10 +2716,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U11" s="11"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="18"/>
-      <c r="AD11" s="11"/>
       <c r="AO11" s="12" t="inlineStr">
         <is>
           <t>claimId8-realClaimId8-999-P</t>
@@ -2804,10 +2778,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U12" s="11"/>
-      <c r="Y12" s="11"/>
-      <c r="Z12" s="18"/>
-      <c r="AD12" s="11"/>
       <c r="AO12" s="12" t="inlineStr">
         <is>
           <t>claimId9-realClaimId9-999-P</t>
@@ -2870,10 +2840,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U13" s="11"/>
-      <c r="Y13" s="11"/>
-      <c r="Z13" s="18"/>
-      <c r="AD13" s="11"/>
       <c r="AO13" s="12" t="inlineStr">
         <is>
           <t>claimId10-realClaimId10-999-P</t>
@@ -2936,10 +2902,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="18"/>
-      <c r="AD14" s="11"/>
       <c r="AO14" s="12" t="inlineStr">
         <is>
           <t>claimId11-realClaimId11-999-P</t>
@@ -3002,10 +2964,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U15" s="11"/>
-      <c r="Y15" s="11"/>
-      <c r="Z15" s="18"/>
-      <c r="AD15" s="11"/>
       <c r="AO15" s="12" t="inlineStr">
         <is>
           <t>claimId12-realClaimId12-999-P</t>
@@ -3068,10 +3026,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U16" s="11"/>
-      <c r="Y16" s="11"/>
-      <c r="Z16" s="18"/>
-      <c r="AD16" s="11"/>
       <c r="AO16" s="12" t="inlineStr">
         <is>
           <t>claimId13-realClaimId13-999-P</t>
@@ -3134,10 +3088,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="18"/>
-      <c r="AD17" s="11"/>
       <c r="AO17" s="12" t="inlineStr">
         <is>
           <t>claimId14-realClaimId14-999-P</t>
@@ -3200,10 +3150,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="18"/>
-      <c r="AD18" s="11"/>
       <c r="AO18" s="12" t="inlineStr">
         <is>
           <t>claimId15-realClaimId15-999-P</t>
@@ -3266,10 +3212,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="18"/>
-      <c r="AD19" s="11"/>
       <c r="AO19" s="12" t="inlineStr">
         <is>
           <t>claimId16-realClaimId16-999-P</t>
@@ -3332,10 +3274,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="18"/>
-      <c r="AD20" s="11"/>
       <c r="AO20" s="12" t="inlineStr">
         <is>
           <t>claimId17-realClaimId17-999-P</t>
@@ -3398,10 +3336,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="18"/>
-      <c r="AD21" s="11"/>
       <c r="AO21" s="12" t="inlineStr">
         <is>
           <t>claimId18-realClaimId18-999-P</t>
@@ -3464,10 +3398,16 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="18"/>
-      <c r="AD22" s="11"/>
+      <c r="Z22" s="18" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="AD22" s="11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="AO22" s="12" t="inlineStr">
         <is>
           <t>claimId19-realClaimId19-999-P</t>
@@ -3530,10 +3470,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="18"/>
-      <c r="AD23" s="11"/>
       <c r="AO23" s="12" t="inlineStr">
         <is>
           <t>claimId20-realClaimId20-999-P</t>
@@ -3596,10 +3532,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="18"/>
-      <c r="AD24" s="11"/>
       <c r="AO24" s="12" t="inlineStr">
         <is>
           <t>claimId21-realClaimId21-999-P</t>
@@ -3662,10 +3594,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="18"/>
-      <c r="AD25" s="11"/>
       <c r="AO25" s="12" t="inlineStr">
         <is>
           <t>claimId22-realClaimId22-999-P</t>
@@ -3728,10 +3656,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="18"/>
-      <c r="AD26" s="11"/>
       <c r="AO26" s="12" t="inlineStr">
         <is>
           <t>claimId23-realClaimId23-999-P</t>
@@ -3794,10 +3718,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="18"/>
-      <c r="AD27" s="11"/>
       <c r="AO27" s="12" t="inlineStr">
         <is>
           <t>claimId24-realClaimId24-999-P</t>
@@ -3860,10 +3780,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="18"/>
-      <c r="AD28" s="11"/>
       <c r="AO28" s="12" t="inlineStr">
         <is>
           <t>claimId25-realClaimId25-999-P</t>
@@ -3926,10 +3842,26 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="18"/>
-      <c r="AD29" s="11"/>
+      <c r="U29" s="11" t="inlineStr">
+        <is>
+          <t>24.19</t>
+        </is>
+      </c>
+      <c r="Y29" s="11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="Z29" s="18" t="inlineStr">
+        <is>
+          <t>24.19</t>
+        </is>
+      </c>
+      <c r="AD29" s="11" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
       <c r="AO29" s="12" t="inlineStr">
         <is>
           <t>claimId26-realClaimId26-999-P</t>
@@ -3992,10 +3924,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="18"/>
-      <c r="AD30" s="11"/>
       <c r="AO30" s="12" t="inlineStr">
         <is>
           <t>claimId27-realClaimId27-999-P</t>
@@ -4058,10 +3986,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="18"/>
-      <c r="AD31" s="11"/>
       <c r="AO31" s="12" t="inlineStr">
         <is>
           <t>claimId28-realClaimId28-999-P</t>
@@ -4124,10 +4048,6 @@
           <t>P</t>
         </is>
       </c>
-      <c r="U32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="18"/>
-      <c r="AD32" s="11"/>
       <c r="AO32" s="12" t="inlineStr">
         <is>
           <t>claimId29-realClaimId29-999-P</t>
